--- a/excel_sheets/Toy-2D-Problem-Constraint.xlsx
+++ b/excel_sheets/Toy-2D-Problem-Constraint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BillTubbs\bayes-opt-examples\excel_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069816A-42CE-4FCF-9B86-742A4CD8D8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F38DE4-E60F-4117-ABBC-878F7927975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1028" yWindow="735" windowWidth="27539" windowHeight="13320" xr2:uid="{0B74BFA1-2546-4EB0-A89E-EF752D6C8597}"/>
   </bookViews>

--- a/excel_sheets/Toy-2D-Problem-Constraint.xlsx
+++ b/excel_sheets/Toy-2D-Problem-Constraint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BillTubbs\bayes-opt-examples\excel_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billtubbs/bayes-opt-examples/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F38DE4-E60F-4117-ABBC-878F7927975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C35EE31-E059-C042-BDDE-26A473B379AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1028" yWindow="735" windowWidth="27539" windowHeight="13320" xr2:uid="{0B74BFA1-2546-4EB0-A89E-EF752D6C8597}"/>
+    <workbookView xWindow="1020" yWindow="740" windowWidth="27540" windowHeight="13320" xr2:uid="{0B74BFA1-2546-4EB0-A89E-EF752D6C8597}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955E2372-102B-4997-A1CD-1CA94E042F50}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -484,8 +484,11 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -494,7 +497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -505,7 +508,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
